--- a/biology/Médecine/Le_Mandarin_aux_pieds_nus/Le_Mandarin_aux_pieds_nus.xlsx
+++ b/biology/Médecine/Le_Mandarin_aux_pieds_nus/Le_Mandarin_aux_pieds_nus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Entretiens avec Jean Lacouture
 Le Mandarin aux pieds nus est un livre d'entretiens d'Alexandre Minkowski avec le journaliste Jean Lacouture, présenté par ce dernier sous la forme d'un essai à caractère autobiographique, paru en 1975 aux éditions du Seuil.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Découpage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un avant-propos de trois pages de Lacouture est suivi de quinze chapitres retraçant selon un ordre chronologique les étapes marquantes de la vie d'Alexandre Minkowski devenu « mandarin » (ce mot étant utilisé dans le titre de tous les chapitres sauf le premier) et les valeurs qu'il a défendues.
 </t>
@@ -569,7 +585,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le livre s'ouvre sur une épigraphe du Médecin malgré lui de Molière se terminant par le passage : « [...] le bon de cette profession est qu'il y a parmi les morts une honnêteté, une discrétion la plus grande du monde ; et jamais on n'en voit se plaindre du médecin qui l'a tué. »
 </t>
@@ -600,9 +618,11 @@
           <t>Réception</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La journaliste médicale Claudine Escoffier-Lambiotte, sous la signature « Dr E.L. » relève dans le quotidien Le Monde le paradoxe apparent selon lequel l'auteur « est, sans conteste, l'un des grands privilégiés de la féodalité médico-scientifique » qu'il dénonce[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La journaliste médicale Claudine Escoffier-Lambiotte, sous la signature « Dr E.L. » relève dans le quotidien Le Monde le paradoxe apparent selon lequel l'auteur « est, sans conteste, l'un des grands privilégiés de la féodalité médico-scientifique » qu'il dénonce.
 </t>
         </is>
       </c>
